--- a/אירועי רמצאן 22.xlsx
+++ b/אירועי רמצאן 22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GoogleTrendsTerrorWaves\GoogleTrendsTerrorWaves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96228371-CF9B-4A70-AFD8-EF729257AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12930A5-F3E8-4D91-B4EE-0ACC00528D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3DA0C2F7-AA40-4D42-93AE-66A36F6EF2F3}"/>
   </bookViews>
@@ -1541,49 +1541,49 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,15 +2907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3525,7 +3525,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4202,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
         <v>7</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -4244,7 +4244,7 @@
         <v>17</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -4272,7 +4272,7 @@
         <v>11</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -4286,7 +4286,7 @@
         <v>13</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -4328,7 +4328,7 @@
         <v>26</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
         <v>100</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -4356,7 +4356,7 @@
         <v>31</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -4370,7 +4370,7 @@
         <v>13</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4384,7 +4384,7 @@
         <v>19</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
